--- a/misc/servoCalibration.xlsx
+++ b/misc/servoCalibration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="460" windowWidth="30440" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="30440" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
+    <sheet name="MG90D" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>STEP</t>
   </si>
@@ -54,6 +58,15 @@
   </si>
   <si>
     <t>Purple b</t>
+  </si>
+  <si>
+    <t>MG90D</t>
+  </si>
+  <si>
+    <t>uS</t>
+  </si>
+  <si>
+    <t>Angle</t>
   </si>
 </sst>
 </file>
@@ -120,7 +133,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -825,11 +837,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2015590768"/>
-        <c:axId val="1816489616"/>
+        <c:axId val="-2100211392"/>
+        <c:axId val="-2100207952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2015590768"/>
+        <c:axId val="-2100211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816489616"/>
+        <c:crossAx val="-2100207952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -879,7 +891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1816489616"/>
+        <c:axId val="-2100207952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2015590768"/>
+        <c:crossAx val="-2100211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,7 +956,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1666,11 +1677,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2016245408"/>
-        <c:axId val="-2031454560"/>
+        <c:axId val="-2100117744"/>
+        <c:axId val="-2144293648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2016245408"/>
+        <c:axId val="-2100117744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2031454560"/>
+        <c:crossAx val="-2144293648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1776,7 +1787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2031454560"/>
+        <c:axId val="-2144293648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +1898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2016245408"/>
+        <c:crossAx val="-2100117744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1931,6 +1942,529 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MG90D!$A$4:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2290.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MG90D!$B$4:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MG90D!$A$4:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2290.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MG90D!$C$4:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2068146816"/>
+        <c:axId val="-2068142816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2068146816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2068142816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2068142816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2068146816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2048,6 +2582,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3061,6 +3635,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3114,16 +4204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>393699</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>102498</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3137,6 +4227,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3410,7 +4535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="99" workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
@@ -4657,4 +5782,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>710</v>
+      </c>
+      <c r="B4">
+        <v>168</v>
+      </c>
+      <c r="C4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>800</v>
+      </c>
+      <c r="B5">
+        <v>159</v>
+      </c>
+      <c r="C5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>900</v>
+      </c>
+      <c r="B6">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7">
+        <v>139</v>
+      </c>
+      <c r="C7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1100</v>
+      </c>
+      <c r="B8">
+        <v>129</v>
+      </c>
+      <c r="C8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1200</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1300</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1400</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1500</v>
+      </c>
+      <c r="B12">
+        <v>91</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1600</v>
+      </c>
+      <c r="B13">
+        <v>82</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1700</v>
+      </c>
+      <c r="B14">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1800</v>
+      </c>
+      <c r="B15">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1900</v>
+      </c>
+      <c r="B16">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2000</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2100</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2200</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2290</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>